--- a/Data_Attribute_Dictionary.xlsx
+++ b/Data_Attribute_Dictionary.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aniru\Desktop\EDA_Python_Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aniru\Desktop\Data Science\Git Hub_Projects\Python\Exploratory_Data_Analysis_Python_Project-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{477DE76F-899D-4D67-B625-08DA57665097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01CB1629-610A-443A-9032-BB48CD2604FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,9 +41,6 @@
   </si>
   <si>
     <t>This column represents monthly salary of the customer</t>
-  </si>
-  <si>
-    <t>balance</t>
   </si>
   <si>
     <t>This column represents the cash balance in the bank account of the customer</t>
@@ -191,6 +188,9 @@
   </si>
   <si>
     <t>Particular cusomer before targetted or not</t>
+  </si>
+  <si>
+    <t xml:space="preserve">balance. </t>
   </si>
 </sst>
 </file>
@@ -693,7 +693,7 @@
   <dimension ref="A1:O35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -710,7 +710,7 @@
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -721,10 +721,10 @@
         <v>2</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G2" s="15"/>
       <c r="H2" s="15"/>
@@ -738,13 +738,13 @@
     </row>
     <row r="3" spans="1:15" ht="28.8">
       <c r="A3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F3" s="17"/>
       <c r="G3" s="18"/>
@@ -759,13 +759,13 @@
     </row>
     <row r="4" spans="1:15" ht="29.4" thickBot="1">
       <c r="A4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F4" s="20"/>
       <c r="G4" s="21"/>
@@ -780,107 +780,107 @@
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="43.2">
       <c r="A6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="C6" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="43.2">
       <c r="A7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="C7" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="43.2">
       <c r="A8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="43.2">
       <c r="A9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="C9" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="C10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="11" t="s">
         <v>41</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="28.8">
       <c r="A11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="C11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="11" t="s">
         <v>41</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="115.2">
       <c r="A12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="C12" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="28.8">
       <c r="A13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="C13" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -891,7 +891,7 @@
         <v>4</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -902,62 +902,62 @@
         <v>6</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="C16" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="C17" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="57.6">
       <c r="A18" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="C18" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="28.8">
       <c r="A19" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="C19" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="C20" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:3">
